--- a/ReportData/PreparedDataPointChart/RandomFloat_InsertBinarySortTimes.csv.xlsx
+++ b/ReportData/PreparedDataPointChart/RandomFloat_InsertBinarySortTimes.csv.xlsx
@@ -184,10 +184,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>21.598688</c:v>
+                  <c:v>22.095992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.447296</c:v>
+                  <c:v>94.358521</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>372.4587</c:v>
@@ -641,7 +641,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>21.598688</v>
+        <v>22.095992</v>
       </c>
       <c r="E2">
         <v>5000</v>
@@ -658,7 +658,7 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>125.447296</v>
+        <v>94.358521</v>
       </c>
       <c r="E3">
         <v>10000</v>
